--- a/data/Networks/Chicago-Sketch/Results/Scenarios/summary.xlsx
+++ b/data/Networks/Chicago-Sketch/Results/Scenarios/summary.xlsx
@@ -520,7 +520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C24" sqref="A1:XFD1048576"/>
@@ -613,22 +613,22 @@
         <v/>
       </c>
       <c r="B3" t="n">
-        <v>6.4042949</v>
+        <v>5.5054657</v>
       </c>
       <c r="C3" t="n">
-        <v>6.4997528</v>
+        <v>4.4212646</v>
       </c>
       <c r="D3" t="n">
-        <v>6.7641868</v>
+        <v>5.226341</v>
       </c>
       <c r="E3" t="n">
-        <v>5.553863</v>
+        <v>10.0500012</v>
       </c>
       <c r="F3" t="n">
-        <v>14.6825343</v>
+        <v>3.8239077</v>
       </c>
       <c r="G3" t="n">
-        <v>46.3094915</v>
+        <v>63.9673461</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>1</v>
@@ -667,22 +667,22 @@
         <v/>
       </c>
       <c r="B4" t="n">
-        <v>7.6924852</v>
+        <v>5.0362924</v>
       </c>
       <c r="C4" t="n">
-        <v>6.4748324</v>
+        <v>3.8458962</v>
       </c>
       <c r="D4" t="n">
-        <v>6.1348881</v>
+        <v>3.9021295</v>
       </c>
       <c r="E4" t="n">
-        <v>5.8674777</v>
+        <v>3.8300357</v>
       </c>
       <c r="F4" t="n">
-        <v>5.8529102</v>
+        <v>3.9924657</v>
       </c>
       <c r="G4" t="n">
-        <v>65.88057259999999</v>
+        <v>40.5718515</v>
       </c>
       <c r="I4">
         <f>I3+1</f>
@@ -722,22 +722,22 @@
         <v/>
       </c>
       <c r="B5" t="n">
-        <v>7.1058118</v>
+        <v>10.013446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.7306962</v>
+        <v>10.5675035</v>
       </c>
       <c r="D5" t="n">
-        <v>5.6044258</v>
+        <v>10.8508678</v>
       </c>
       <c r="E5" t="n">
-        <v>5.1276836</v>
+        <v>10.5153893</v>
       </c>
       <c r="F5" t="n">
-        <v>4.9329947</v>
+        <v>8.979025399999999</v>
       </c>
       <c r="G5" t="n">
-        <v>58.1850098</v>
+        <v>82.13768330000001</v>
       </c>
       <c r="I5">
         <f>I4+1</f>
@@ -777,22 +777,22 @@
         <v/>
       </c>
       <c r="B6" t="n">
-        <v>0.2353333</v>
+        <v>3.9599135</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1810605</v>
+        <v>4.0482364</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1924856</v>
+        <v>4.2458565</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1755367</v>
+        <v>4.2769376</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1846459</v>
+        <v>4.1373299</v>
       </c>
       <c r="G6" t="n">
-        <v>1.4017365</v>
+        <v>30.8600411</v>
       </c>
       <c r="I6">
         <f>I5+1</f>
@@ -832,22 +832,22 @@
         <v/>
       </c>
       <c r="B7" t="n">
-        <v>0.0629777</v>
+        <v>9.1810885</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0851148</v>
+        <v>9.5906264</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0619742</v>
+        <v>9.837821699999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0605633</v>
+        <v>10.3983322</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0583007</v>
+        <v>19.6331683</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3832547</v>
+        <v>182.4142392</v>
       </c>
       <c r="I7">
         <f>I6+1</f>
@@ -887,19 +887,19 @@
         <v/>
       </c>
       <c r="B8" t="n">
-        <v>7.9364897</v>
+        <v>8.989054700000001</v>
       </c>
       <c r="C8" t="n">
-        <v>10.1226233</v>
+        <v>9.2443078</v>
       </c>
       <c r="D8" t="n">
-        <v>9.8537131</v>
+        <v>11.0458034</v>
       </c>
       <c r="E8" t="n">
-        <v>13.2295925</v>
+        <v>37.2683291</v>
       </c>
       <c r="F8" t="n">
-        <v>19.7336128</v>
+        <v>222.0427116</v>
       </c>
       <c r="G8" t="n">
         <v>62.7625094</v>
@@ -942,19 +942,19 @@
         <v/>
       </c>
       <c r="B9" t="n">
-        <v>3.1614979</v>
+        <v>10.6633418</v>
       </c>
       <c r="C9" t="n">
-        <v>3.051785</v>
+        <v>9.4004931</v>
       </c>
       <c r="D9" t="n">
-        <v>2.828692901</v>
+        <v>8.692122100000001</v>
       </c>
       <c r="E9" t="n">
-        <v>2.7030208</v>
+        <v>7.5539382</v>
       </c>
       <c r="F9" t="n">
-        <v>2.6683204</v>
+        <v>11.1160003</v>
       </c>
       <c r="G9" t="n">
         <v>26.4592969</v>
@@ -997,19 +997,19 @@
         <v/>
       </c>
       <c r="B10" t="n">
-        <v>12.570316701</v>
+        <v>2.1357763</v>
       </c>
       <c r="C10" t="n">
-        <v>46.8403496</v>
+        <v>2.0453324</v>
       </c>
       <c r="D10" t="n">
-        <v>53.9273086</v>
+        <v>2.0845908</v>
       </c>
       <c r="E10" t="n">
-        <v>38.179295399</v>
+        <v>2.0856632</v>
       </c>
       <c r="F10" t="n">
-        <v>24.3127347</v>
+        <v>2.0516674</v>
       </c>
       <c r="G10" t="n">
         <v>257.7528286</v>
@@ -1052,19 +1052,19 @@
         <v/>
       </c>
       <c r="B11" t="n">
-        <v>7.8900074</v>
+        <v>4.39007</v>
       </c>
       <c r="C11" t="n">
-        <v>8.314880199999999</v>
+        <v>4.3412327</v>
       </c>
       <c r="D11" t="n">
-        <v>8.5140973</v>
+        <v>4.0250014</v>
       </c>
       <c r="E11" t="n">
-        <v>8.2882938</v>
+        <v>3.9692344</v>
       </c>
       <c r="F11" t="n">
-        <v>19.7611525</v>
+        <v>3.8031135</v>
       </c>
       <c r="I11">
         <f>I10+1</f>
@@ -1104,19 +1104,19 @@
         <v/>
       </c>
       <c r="B12" t="n">
-        <v>36.0165935</v>
+        <v>2.7538036</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4728164</v>
+        <v>3.5445937</v>
       </c>
       <c r="D12" t="n">
-        <v>24.69064</v>
+        <v>18.8981891</v>
       </c>
       <c r="E12" t="n">
-        <v>31.2167099</v>
+        <v>7.4874065</v>
       </c>
       <c r="F12" t="n">
-        <v>32.5693927</v>
+        <v>17.9221036</v>
       </c>
       <c r="I12" s="30">
         <f>I11+1</f>
@@ -1156,19 +1156,19 @@
         <v/>
       </c>
       <c r="B13" t="n">
-        <v>1.3599466</v>
+        <v>1.6561335</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0571429</v>
+        <v>0.847930301</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9346395</v>
+        <v>0.6752638010000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8665464</v>
+        <v>0.500780301</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7125079</v>
+        <v>0.5471573</v>
       </c>
       <c r="I13" s="28" t="inlineStr">
         <is>
@@ -1206,19 +1206,19 @@
         <v/>
       </c>
       <c r="B14" t="n">
-        <v>28.7305533</v>
+        <v>5.0004625</v>
       </c>
       <c r="C14" t="n">
-        <v>177.9652791</v>
+        <v>3.1327084</v>
       </c>
       <c r="D14" t="n">
-        <v>111.2346457</v>
+        <v>2.4496632</v>
       </c>
       <c r="E14" t="n">
-        <v>84.7769435</v>
+        <v>2.763642501</v>
       </c>
       <c r="F14" t="n">
-        <v>70.80961619999999</v>
+        <v>9.048845500000001</v>
       </c>
     </row>
     <row r="15">
@@ -1227,19 +1227,19 @@
         <v/>
       </c>
       <c r="B15" t="n">
-        <v>17.4090545</v>
+        <v>7.943719499</v>
       </c>
       <c r="C15" t="n">
-        <v>16.3243336</v>
+        <v>5.598260301</v>
       </c>
       <c r="D15" t="n">
-        <v>16.8714512</v>
+        <v>5.3628995</v>
       </c>
       <c r="E15" t="n">
-        <v>22.775593</v>
+        <v>5.331519199</v>
       </c>
       <c r="F15" t="n">
-        <v>18.3354637</v>
+        <v>7.332353699</v>
       </c>
     </row>
     <row r="16">
@@ -1248,19 +1248,19 @@
         <v/>
       </c>
       <c r="B16" t="n">
-        <v>9.945926800000001</v>
+        <v>17.573174101</v>
       </c>
       <c r="C16" t="n">
-        <v>6.7274019</v>
+        <v>18.36229</v>
       </c>
       <c r="D16" t="n">
-        <v>5.292616</v>
+        <v>18.380557899</v>
       </c>
       <c r="E16" t="n">
-        <v>6.5722733</v>
+        <v>16.8520238</v>
       </c>
       <c r="F16" t="n">
-        <v>6.471222</v>
+        <v>37.336079299</v>
       </c>
     </row>
     <row r="17">
@@ -1269,19 +1269,19 @@
         <v/>
       </c>
       <c r="B17" t="n">
-        <v>3.1720704</v>
+        <v>8.629942201</v>
       </c>
       <c r="C17" t="n">
-        <v>3.2869964</v>
+        <v>9.086075900000001</v>
       </c>
       <c r="D17" t="n">
-        <v>3.1971949</v>
+        <v>9.4231506</v>
       </c>
       <c r="E17" t="n">
-        <v>3.871653</v>
+        <v>9.375981400000001</v>
       </c>
       <c r="F17" t="n">
-        <v>3.2126124</v>
+        <v>9.100125799000001</v>
       </c>
     </row>
     <row r="18">
@@ -1290,19 +1290,19 @@
         <v/>
       </c>
       <c r="B18" t="n">
-        <v>7.272218</v>
+        <v>20.979280301</v>
       </c>
       <c r="C18" t="n">
-        <v>5.7871369</v>
+        <v>16.828738999</v>
       </c>
       <c r="D18" t="n">
-        <v>5.6556776</v>
+        <v>16.5652996</v>
       </c>
       <c r="E18" t="n">
-        <v>5.4370608</v>
+        <v>82.97283210000001</v>
       </c>
       <c r="F18" t="n">
-        <v>5.2679923</v>
+        <v>73.33400330000001</v>
       </c>
     </row>
     <row r="19">
@@ -1311,19 +1311,19 @@
         <v/>
       </c>
       <c r="B19" t="n">
-        <v>14.5425739</v>
+        <v>5.0770776</v>
       </c>
       <c r="C19" t="n">
-        <v>10.3303472</v>
+        <v>4.2356098</v>
       </c>
       <c r="D19" t="n">
-        <v>7.4088665</v>
+        <v>4.2735113</v>
       </c>
       <c r="E19" t="n">
-        <v>4.8501148</v>
+        <v>4.0476574</v>
       </c>
       <c r="F19" t="n">
-        <v>4.5383823</v>
+        <v>4.9095181</v>
       </c>
     </row>
     <row r="20">
@@ -1332,19 +1332,19 @@
         <v/>
       </c>
       <c r="B20" t="n">
-        <v>3.6443019</v>
+        <v>11.9239932</v>
       </c>
       <c r="C20" t="n">
-        <v>3.4601624</v>
+        <v>9.5614413</v>
       </c>
       <c r="D20" t="n">
-        <v>3.5150003</v>
+        <v>9.0978412</v>
       </c>
       <c r="E20" t="n">
-        <v>4.6199154</v>
+        <v>9.7614619</v>
       </c>
       <c r="F20" t="n">
-        <v>3.1406278</v>
+        <v>10.4581972</v>
       </c>
     </row>
     <row r="21">
@@ -1353,19 +1353,19 @@
         <v/>
       </c>
       <c r="B21" t="n">
-        <v>13.977118</v>
+        <v>2.71657</v>
       </c>
       <c r="C21" t="n">
-        <v>23.4313068</v>
+        <v>2.4319321</v>
       </c>
       <c r="D21" t="n">
-        <v>14.6650582</v>
+        <v>2.2843115</v>
       </c>
       <c r="E21" t="n">
-        <v>20.8006416</v>
+        <v>1.9607436</v>
       </c>
       <c r="F21" t="n">
-        <v>41.2538739</v>
+        <v>1.7145104</v>
       </c>
     </row>
     <row r="22">
@@ -1374,19 +1374,359 @@
         <v/>
       </c>
       <c r="B22" t="n">
-        <v>15.307028</v>
+        <v>6.3968404</v>
       </c>
       <c r="C22" t="n">
-        <v>12.491617</v>
+        <v>5.5244832</v>
       </c>
       <c r="D22" t="n">
-        <v>9.6918822</v>
+        <v>6.8309641</v>
       </c>
       <c r="E22" t="n">
-        <v>8.9533586</v>
+        <v>5.2128854</v>
       </c>
       <c r="F22" t="n">
-        <v>7.4333016</v>
+        <v>3.0817845</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>9.1704115</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.114029199999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.3672528</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.312448</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7.2917701</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>13.0612317</v>
+      </c>
+      <c r="C24" t="n">
+        <v>13.5308941</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13.3146183</v>
+      </c>
+      <c r="E24" t="n">
+        <v>40.1756158</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20.5629612</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>24.1331386</v>
+      </c>
+      <c r="C25" t="n">
+        <v>18.7993861</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20.1940429</v>
+      </c>
+      <c r="E25" t="n">
+        <v>18.598739</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24.1505129</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>8.7995307</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9.8122252</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11.4460822</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10.2615426</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12.699892</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="n">
+        <v>7.4809107</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.9919477</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.0388104</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.0176792</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.9158246</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>46.8161989</v>
+      </c>
+      <c r="C28" t="n">
+        <v>66.91429340000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>72.6672726</v>
+      </c>
+      <c r="E28" t="n">
+        <v>73.2044566</v>
+      </c>
+      <c r="F28" t="n">
+        <v>73.8084659</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="n">
+        <v>24.5332089</v>
+      </c>
+      <c r="C29" t="n">
+        <v>22.6900748</v>
+      </c>
+      <c r="D29" t="n">
+        <v>21.1472159</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20.1257142</v>
+      </c>
+      <c r="F29" t="n">
+        <v>21.0121982</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="n">
+        <v>3.8926996</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.1686216</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.2924696</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.2658242</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.3116976</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="n">
+        <v>5.5310505</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.6616322</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.8425539</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.838556</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.8066638</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="n">
+        <v>15.888751</v>
+      </c>
+      <c r="C32" t="n">
+        <v>13.0763763</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10.7302568</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10.1996245</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9.532495600000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="n">
+        <v>6.3542466</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.7101524</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.7450324</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6.6075956</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10.6504148</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="n">
+        <v>7.2076032</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.9097848</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6.8430241</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6.3886835</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5.6979023</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="n">
+        <v>8.417677899999999</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9.1243768</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8.5944106</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9.3089795</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6.015138</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="n">
+        <v>13.8370035</v>
+      </c>
+      <c r="C36" t="n">
+        <v>15.6207845</v>
+      </c>
+      <c r="D36" t="n">
+        <v>15.2440906</v>
+      </c>
+      <c r="E36" t="n">
+        <v>18.8362134</v>
+      </c>
+      <c r="F36" t="n">
+        <v>18.3618911</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="n">
+        <v>11.45255</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8.8912379</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.0060042</v>
+      </c>
+      <c r="E37" t="n">
+        <v>8.705800999999999</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9.313878000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="n">
+        <v>29.4944046</v>
+      </c>
+      <c r="C38" t="n">
+        <v>19.3994949</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12.4526026</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7.8522884</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7.101953</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="n">
+        <v>18.4816672</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20.73486</v>
+      </c>
+      <c r="D39" t="n">
+        <v>33.5281986</v>
+      </c>
+      <c r="E39" t="n">
+        <v>55.6186508</v>
+      </c>
+      <c r="F39" t="n">
+        <v>141.7808436</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="n">
+        <v>13.6627737</v>
+      </c>
+      <c r="C40" t="n">
+        <v>14.1250346</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14.452664</v>
+      </c>
+      <c r="E40" t="n">
+        <v>14.5158513</v>
+      </c>
+      <c r="F40" t="n">
+        <v>14.5277657</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="n">
+        <v>13.8200316</v>
+      </c>
+      <c r="C41" t="n">
+        <v>13.8407335</v>
+      </c>
+      <c r="D41" t="n">
+        <v>32.1988951</v>
+      </c>
+      <c r="E41" t="n">
+        <v>28.3416492</v>
+      </c>
+      <c r="F41" t="n">
+        <v>38.2391602</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="n">
+        <v>0.0637069</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0647891</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.063887</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0603231</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.061676</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +1744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
@@ -1509,22 +1849,22 @@
         <v/>
       </c>
       <c r="B3" t="n">
-        <v>13951</v>
+        <v>11426</v>
       </c>
       <c r="C3" t="n">
-        <v>13951</v>
+        <v>11426</v>
       </c>
       <c r="D3" t="n">
-        <v>13951</v>
+        <v>11435</v>
       </c>
       <c r="E3" t="n">
-        <v>13981</v>
+        <v>11714</v>
       </c>
       <c r="F3" t="n">
-        <v>14219</v>
+        <v>11435</v>
       </c>
       <c r="G3" t="n">
-        <v>13981</v>
+        <v>11896</v>
       </c>
       <c r="I3" s="14" t="n">
         <v>1</v>
@@ -1571,22 +1911,22 @@
         <v/>
       </c>
       <c r="B4" t="n">
-        <v>13546</v>
+        <v>7466</v>
       </c>
       <c r="C4" t="n">
-        <v>13546</v>
+        <v>7466</v>
       </c>
       <c r="D4" t="n">
-        <v>13546</v>
+        <v>7466</v>
       </c>
       <c r="E4" t="n">
-        <v>13546</v>
+        <v>7466</v>
       </c>
       <c r="F4" t="n">
-        <v>13546</v>
+        <v>7466</v>
       </c>
       <c r="G4" t="n">
-        <v>13546</v>
+        <v>7466</v>
       </c>
       <c r="I4" s="16">
         <f>I3+1</f>
@@ -1634,22 +1974,22 @@
         <v/>
       </c>
       <c r="B5" t="n">
-        <v>12262</v>
+        <v>12980</v>
       </c>
       <c r="C5" t="n">
-        <v>12262</v>
+        <v>12980</v>
       </c>
       <c r="D5" t="n">
-        <v>12262</v>
+        <v>12980</v>
       </c>
       <c r="E5" t="n">
-        <v>12262</v>
+        <v>12980</v>
       </c>
       <c r="F5" t="n">
-        <v>12262</v>
+        <v>12980</v>
       </c>
       <c r="G5" t="n">
-        <v>12262</v>
+        <v>12980</v>
       </c>
       <c r="I5" s="16">
         <f>I4+1</f>
@@ -1697,22 +2037,22 @@
         <v/>
       </c>
       <c r="B6" t="n">
-        <v>9999999</v>
+        <v>9742</v>
       </c>
       <c r="C6" t="n">
-        <v>9999999</v>
+        <v>9742</v>
       </c>
       <c r="D6" t="n">
-        <v>9999999</v>
+        <v>9742</v>
       </c>
       <c r="E6" t="n">
-        <v>9999999</v>
+        <v>9742</v>
       </c>
       <c r="F6" t="n">
-        <v>9999999</v>
+        <v>9742</v>
       </c>
       <c r="G6" t="n">
-        <v>9999999</v>
+        <v>9742</v>
       </c>
       <c r="I6" s="16">
         <f>I5+1</f>
@@ -1760,22 +2100,22 @@
         <v/>
       </c>
       <c r="B7" t="n">
-        <v>9999999</v>
+        <v>13807</v>
       </c>
       <c r="C7" t="n">
-        <v>9999999</v>
+        <v>13807</v>
       </c>
       <c r="D7" t="n">
-        <v>9999999</v>
+        <v>13807</v>
       </c>
       <c r="E7" t="n">
-        <v>9999999</v>
+        <v>13837</v>
       </c>
       <c r="F7" t="n">
-        <v>9999999</v>
+        <v>13981</v>
       </c>
       <c r="G7" t="n">
-        <v>9999999</v>
+        <v>13986</v>
       </c>
       <c r="I7" s="16">
         <f>I6+1</f>
@@ -1823,19 +2163,19 @@
         <v/>
       </c>
       <c r="B8" t="n">
-        <v>12645</v>
+        <v>17628</v>
       </c>
       <c r="C8" t="n">
-        <v>12658</v>
+        <v>17628</v>
       </c>
       <c r="D8" t="n">
-        <v>12658</v>
+        <v>17628</v>
       </c>
       <c r="E8" t="n">
-        <v>12754</v>
+        <v>17938</v>
       </c>
       <c r="F8" t="n">
-        <v>13170</v>
+        <v>18108</v>
       </c>
       <c r="G8" t="n">
         <v>12754</v>
@@ -1886,19 +2226,19 @@
         <v/>
       </c>
       <c r="B9" t="n">
-        <v>13457</v>
+        <v>16423</v>
       </c>
       <c r="C9" t="n">
-        <v>13457</v>
+        <v>16423</v>
       </c>
       <c r="D9" t="n">
-        <v>13457</v>
+        <v>16423</v>
       </c>
       <c r="E9" t="n">
-        <v>13457</v>
+        <v>16431</v>
       </c>
       <c r="F9" t="n">
-        <v>13457</v>
+        <v>16443</v>
       </c>
       <c r="G9" t="n">
         <v>13457</v>
@@ -1949,19 +2289,19 @@
         <v/>
       </c>
       <c r="B10" t="n">
-        <v>15375</v>
+        <v>6979</v>
       </c>
       <c r="C10" t="n">
-        <v>15375</v>
+        <v>6979</v>
       </c>
       <c r="D10" t="n">
-        <v>15375</v>
+        <v>6979</v>
       </c>
       <c r="E10" t="n">
-        <v>15375</v>
+        <v>6979</v>
       </c>
       <c r="F10" t="n">
-        <v>15592</v>
+        <v>6979</v>
       </c>
       <c r="G10" t="n">
         <v>15622</v>
@@ -2012,19 +2352,19 @@
         <v/>
       </c>
       <c r="B11" t="n">
-        <v>11051</v>
+        <v>9585</v>
       </c>
       <c r="C11" t="n">
-        <v>11051</v>
+        <v>9585</v>
       </c>
       <c r="D11" t="n">
-        <v>11051</v>
+        <v>9585</v>
       </c>
       <c r="E11" t="n">
-        <v>11051</v>
+        <v>9585</v>
       </c>
       <c r="F11" t="n">
-        <v>11257</v>
+        <v>9585</v>
       </c>
       <c r="I11" s="16">
         <f>I10+1</f>
@@ -2072,19 +2412,19 @@
         <v/>
       </c>
       <c r="B12" t="n">
-        <v>14466</v>
+        <v>13276</v>
       </c>
       <c r="C12" t="n">
-        <v>14473</v>
+        <v>13373</v>
       </c>
       <c r="D12" t="n">
-        <v>14466</v>
+        <v>13474</v>
       </c>
       <c r="E12" t="n">
-        <v>14503</v>
+        <v>13386</v>
       </c>
       <c r="F12" t="n">
-        <v>14597</v>
+        <v>9999999</v>
       </c>
       <c r="I12" s="18">
         <f>I11+1</f>
@@ -2153,19 +2493,19 @@
         <v/>
       </c>
       <c r="B14" t="n">
-        <v>18658</v>
+        <v>11318</v>
       </c>
       <c r="C14" t="n">
-        <v>9999999</v>
+        <v>11345</v>
       </c>
       <c r="D14" t="n">
-        <v>9999999</v>
+        <v>11345</v>
       </c>
       <c r="E14" t="n">
-        <v>9999999</v>
+        <v>11345</v>
       </c>
       <c r="F14" t="n">
-        <v>9999999</v>
+        <v>11464</v>
       </c>
     </row>
     <row r="15">
@@ -2174,19 +2514,19 @@
         <v/>
       </c>
       <c r="B15" t="n">
-        <v>12377</v>
+        <v>13232</v>
       </c>
       <c r="C15" t="n">
-        <v>12377</v>
+        <v>13232</v>
       </c>
       <c r="D15" t="n">
-        <v>12384</v>
+        <v>13232</v>
       </c>
       <c r="E15" t="n">
-        <v>12377</v>
+        <v>13232</v>
       </c>
       <c r="F15" t="n">
-        <v>12377</v>
+        <v>13232</v>
       </c>
     </row>
     <row r="16">
@@ -2195,19 +2535,19 @@
         <v/>
       </c>
       <c r="B16" t="n">
-        <v>20038</v>
+        <v>20369</v>
       </c>
       <c r="C16" t="n">
-        <v>20740</v>
+        <v>20369</v>
       </c>
       <c r="D16" t="n">
-        <v>20740</v>
+        <v>20369</v>
       </c>
       <c r="E16" t="n">
-        <v>9999999</v>
+        <v>20369</v>
       </c>
       <c r="F16" t="n">
-        <v>9999999</v>
+        <v>20444</v>
       </c>
     </row>
     <row r="17">
@@ -2216,19 +2556,19 @@
         <v/>
       </c>
       <c r="B17" t="n">
-        <v>12185</v>
+        <v>16589</v>
       </c>
       <c r="C17" t="n">
-        <v>12185</v>
+        <v>16589</v>
       </c>
       <c r="D17" t="n">
-        <v>12185</v>
+        <v>16589</v>
       </c>
       <c r="E17" t="n">
-        <v>12214</v>
+        <v>16589</v>
       </c>
       <c r="F17" t="n">
-        <v>12185</v>
+        <v>16589</v>
       </c>
     </row>
     <row r="18">
@@ -2237,19 +2577,19 @@
         <v/>
       </c>
       <c r="B18" t="n">
-        <v>13691</v>
+        <v>14548</v>
       </c>
       <c r="C18" t="n">
-        <v>13691</v>
+        <v>14548</v>
       </c>
       <c r="D18" t="n">
-        <v>13691</v>
+        <v>14548</v>
       </c>
       <c r="E18" t="n">
-        <v>13691</v>
+        <v>14555</v>
       </c>
       <c r="F18" t="n">
-        <v>13691</v>
+        <v>14548</v>
       </c>
     </row>
     <row r="19">
@@ -2258,19 +2598,19 @@
         <v/>
       </c>
       <c r="B19" t="n">
-        <v>12023</v>
+        <v>14941</v>
       </c>
       <c r="C19" t="n">
-        <v>9999999</v>
+        <v>14941</v>
       </c>
       <c r="D19" t="n">
-        <v>9999999</v>
+        <v>14941</v>
       </c>
       <c r="E19" t="n">
-        <v>9999999</v>
+        <v>14941</v>
       </c>
       <c r="F19" t="n">
-        <v>9999999</v>
+        <v>14958</v>
       </c>
     </row>
     <row r="20">
@@ -2279,19 +2619,19 @@
         <v/>
       </c>
       <c r="B20" t="n">
-        <v>12247</v>
+        <v>10904</v>
       </c>
       <c r="C20" t="n">
-        <v>12247</v>
+        <v>10918</v>
       </c>
       <c r="D20" t="n">
-        <v>12247</v>
+        <v>10918</v>
       </c>
       <c r="E20" t="n">
-        <v>12393</v>
+        <v>10918</v>
       </c>
       <c r="F20" t="n">
-        <v>12247</v>
+        <v>10918</v>
       </c>
     </row>
     <row r="21">
@@ -2300,19 +2640,19 @@
         <v/>
       </c>
       <c r="B21" t="n">
-        <v>17308</v>
+        <v>10653</v>
       </c>
       <c r="C21" t="n">
-        <v>17308</v>
+        <v>10653</v>
       </c>
       <c r="D21" t="n">
-        <v>17308</v>
+        <v>10653</v>
       </c>
       <c r="E21" t="n">
-        <v>17308</v>
+        <v>10653</v>
       </c>
       <c r="F21" t="n">
-        <v>17681</v>
+        <v>10653</v>
       </c>
     </row>
     <row r="22">
@@ -2321,18 +2661,358 @@
         <v/>
       </c>
       <c r="B22" t="n">
-        <v>18367</v>
+        <v>13094</v>
       </c>
       <c r="C22" t="n">
+        <v>13094</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13124</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13119</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13124</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>18770</v>
+      </c>
+      <c r="C23" t="n">
+        <v>18770</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18770</v>
+      </c>
+      <c r="E23" t="n">
+        <v>18770</v>
+      </c>
+      <c r="F23" t="n">
+        <v>18770</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>13886</v>
+      </c>
+      <c r="C24" t="n">
+        <v>13886</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13886</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13886</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13974</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>11087</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11087</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11087</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11087</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11128</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>12563</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12563</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12635</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12635</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12633</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="n">
+        <v>13779</v>
+      </c>
+      <c r="C27" t="n">
+        <v>13779</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13779</v>
+      </c>
+      <c r="E27" t="n">
+        <v>13779</v>
+      </c>
+      <c r="F27" t="n">
+        <v>13779</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>15434</v>
+      </c>
+      <c r="C28" t="n">
+        <v>15476</v>
+      </c>
+      <c r="D28" t="n">
+        <v>15434</v>
+      </c>
+      <c r="E28" t="n">
+        <v>15977</v>
+      </c>
+      <c r="F28" t="n">
         <v>9999999</v>
       </c>
-      <c r="D22" t="n">
+    </row>
+    <row r="29">
+      <c r="B29" t="n">
+        <v>13275</v>
+      </c>
+      <c r="C29" t="n">
+        <v>13275</v>
+      </c>
+      <c r="D29" t="n">
+        <v>13275</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13275</v>
+      </c>
+      <c r="F29" t="n">
+        <v>13275</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="n">
+        <v>16103</v>
+      </c>
+      <c r="C30" t="n">
+        <v>16103</v>
+      </c>
+      <c r="D30" t="n">
+        <v>16103</v>
+      </c>
+      <c r="E30" t="n">
+        <v>16103</v>
+      </c>
+      <c r="F30" t="n">
+        <v>16103</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="n">
+        <v>13716</v>
+      </c>
+      <c r="C31" t="n">
+        <v>13716</v>
+      </c>
+      <c r="D31" t="n">
+        <v>13716</v>
+      </c>
+      <c r="E31" t="n">
+        <v>13745</v>
+      </c>
+      <c r="F31" t="n">
+        <v>13806</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="n">
+        <v>14011</v>
+      </c>
+      <c r="C32" t="n">
+        <v>14011</v>
+      </c>
+      <c r="D32" t="n">
+        <v>14011</v>
+      </c>
+      <c r="E32" t="n">
+        <v>14011</v>
+      </c>
+      <c r="F32" t="n">
+        <v>14011</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="n">
+        <v>13947</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13947</v>
+      </c>
+      <c r="D33" t="n">
+        <v>13947</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13947</v>
+      </c>
+      <c r="F33" t="n">
+        <v>13977</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="n">
+        <v>14139</v>
+      </c>
+      <c r="C34" t="n">
+        <v>14139</v>
+      </c>
+      <c r="D34" t="n">
+        <v>14139</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14139</v>
+      </c>
+      <c r="F34" t="n">
+        <v>14139</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="n">
+        <v>10843</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10926</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10926</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10960</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10960</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="n">
+        <v>19100</v>
+      </c>
+      <c r="C36" t="n">
+        <v>19100</v>
+      </c>
+      <c r="D36" t="n">
+        <v>19100</v>
+      </c>
+      <c r="E36" t="n">
+        <v>19100</v>
+      </c>
+      <c r="F36" t="n">
+        <v>19209</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="n">
+        <v>12208</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12208</v>
+      </c>
+      <c r="D37" t="n">
+        <v>12208</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12208</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12208</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="n">
+        <v>14026</v>
+      </c>
+      <c r="C38" t="n">
         <v>9999999</v>
       </c>
-      <c r="E22" t="n">
+      <c r="D38" t="n">
         <v>9999999</v>
       </c>
-      <c r="F22" t="n">
+      <c r="E38" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="n">
+        <v>17547</v>
+      </c>
+      <c r="C39" t="n">
+        <v>17547</v>
+      </c>
+      <c r="D39" t="n">
+        <v>17547</v>
+      </c>
+      <c r="E39" t="n">
+        <v>17554</v>
+      </c>
+      <c r="F39" t="n">
+        <v>17547</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="n">
+        <v>13738</v>
+      </c>
+      <c r="C40" t="n">
+        <v>13738</v>
+      </c>
+      <c r="D40" t="n">
+        <v>13738</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13738</v>
+      </c>
+      <c r="F40" t="n">
+        <v>13738</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="n">
+        <v>11848</v>
+      </c>
+      <c r="C41" t="n">
+        <v>11848</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11848</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11912</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12315</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="F42" t="n">
         <v>9999999</v>
       </c>
     </row>
@@ -2354,7 +3034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
@@ -2453,22 +3133,22 @@
         <v/>
       </c>
       <c r="B3" t="n">
-        <v>0.9999999388207005</v>
+        <v>0.9822087774825993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9994251479308837</v>
+        <v>0.8048217804381387</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9891543190905843</v>
+        <v>0.9766991836961297</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9863742267100639</v>
+        <v>0.8401676153478872</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8112158652995544</v>
+        <v>0.8539739924879721</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9021689824807411</v>
+        <v>0.8292543689041918</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>1</v>
@@ -2514,19 +3194,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9999999984053178</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9999973621276024</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9999053381508687</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.9991070785421811</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.9984747289051884</v>
       </c>
       <c r="I4">
         <f>I3+1</f>
@@ -2570,22 +3250,22 @@
         <v/>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999973973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999999580277104</v>
+        <v>0.9999945456558709</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999719097122173</v>
+        <v>0.9994942383724862</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995142378964148</v>
+        <v>0.9951593636375392</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9969914023796036</v>
+        <v>0.9815587797251126</v>
       </c>
       <c r="G5" t="n">
-        <v>0.993614578403586</v>
+        <v>0.9563662640365634</v>
       </c>
       <c r="I5">
         <f>I4+1</f>
@@ -2629,22 +3309,22 @@
         <v/>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.9999999999623754</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.9999827085789906</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.9989116321781235</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.9911539557023561</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.9740103129042748</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.9329772052819683</v>
       </c>
       <c r="I6">
         <f>I5+1</f>
@@ -2688,22 +3368,22 @@
         <v/>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.9999744708283593</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.9893506356833116</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.9333339807636385</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.9401438354079727</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.9013394643412599</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.8131157168952321</v>
       </c>
       <c r="I7">
         <f>I6+1</f>
@@ -2747,19 +3427,19 @@
         <v/>
       </c>
       <c r="B8" t="n">
-        <v>0.9996873421349698</v>
+        <v>0.9999800343347612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9667116905780851</v>
+        <v>0.9908251888906604</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8592903056728873</v>
+        <v>0.9371391148419028</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9852784872807495</v>
+        <v>0.8343267767912145</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9248777765350626</v>
+        <v>0.8260601216680483</v>
       </c>
       <c r="G8" t="n">
         <v>0.8946217181033536</v>
@@ -2806,19 +3486,19 @@
         <v/>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.999938877591083</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9999999999992556</v>
+        <v>0.9974015553091713</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999994209393</v>
+        <v>0.9748383723291738</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999997796747595</v>
+        <v>0.9242584928188491</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9997682470827884</v>
+        <v>0.9991903076869112</v>
       </c>
       <c r="G9" t="n">
         <v>0.9999958661498454</v>
@@ -2865,19 +3545,19 @@
         <v/>
       </c>
       <c r="B10" t="n">
-        <v>0.9999972458505902</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9966489191906659</v>
+        <v>0.999999999999997</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9667217534015582</v>
+        <v>0.999999949985339</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9039331693054816</v>
+        <v>0.9999998336316701</v>
       </c>
       <c r="F10" t="n">
-        <v>0.815481411670703</v>
+        <v>0.9999948129926295</v>
       </c>
       <c r="G10" t="n">
         <v>0.8171926910731044</v>
@@ -2924,19 +3604,19 @@
         <v/>
       </c>
       <c r="B11" t="n">
-        <v>0.9999995694043206</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9984441499695644</v>
+        <v>0.9999999999998895</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9800445353153742</v>
+        <v>0.9999999998398479</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9311960031131964</v>
+        <v>0.9999998809976662</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8284282834468526</v>
+        <v>0.9998426140500485</v>
       </c>
       <c r="I11">
         <f>I10+1</f>
@@ -2980,19 +3660,19 @@
         <v/>
       </c>
       <c r="B12" t="n">
-        <v>0.9932702843400847</v>
+        <v>0.9995912330207695</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9818157879761786</v>
+        <v>0.9802509636522564</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8035126281546416</v>
+        <v>0.9982204242927664</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9527671542429466</v>
+        <v>0.9441901536639484</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8716671032627568</v>
+        <v>0</v>
       </c>
       <c r="I12" s="30">
         <f>I11+1</f>
@@ -3057,19 +3737,19 @@
         <v/>
       </c>
       <c r="B14" t="n">
-        <v>0.982443444490725</v>
+        <v>0.9991422093752014</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.9993324122332697</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.9882301447987429</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.9527376859848043</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.9953268412275942</v>
       </c>
     </row>
     <row r="15">
@@ -3078,19 +3758,19 @@
         <v/>
       </c>
       <c r="B15" t="n">
-        <v>0.9999938863316704</v>
+        <v>0.9999999999999827</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9948453546659709</v>
+        <v>0.9999995231008111</v>
       </c>
       <c r="D15" t="n">
-        <v>0.986582748801069</v>
+        <v>0.9999009722823134</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9013078942556241</v>
+        <v>0.9984616711783119</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8168333299978439</v>
+        <v>0.9927971749804483</v>
       </c>
     </row>
     <row r="16">
@@ -3099,19 +3779,19 @@
         <v/>
       </c>
       <c r="B16" t="n">
-        <v>0.9983814460267673</v>
+        <v>0.9999998950443791</v>
       </c>
       <c r="C16" t="n">
-        <v>0.988807780961386</v>
+        <v>0.9992421284615218</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9291720687987288</v>
+        <v>0.9869407089790592</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.9509240855657095</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.9287670587663444</v>
       </c>
     </row>
     <row r="17">
@@ -3120,19 +3800,19 @@
         <v/>
       </c>
       <c r="B17" t="n">
-        <v>0.9999999928281931</v>
+        <v>0.9999999999999944</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9949359000285468</v>
+        <v>0.9999998037369965</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9279701554609066</v>
+        <v>0.9999368042712627</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9387795167315256</v>
+        <v>0.9989551396524884</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9311725264815547</v>
+        <v>0.9945881415232287</v>
       </c>
     </row>
     <row r="18">
@@ -3141,19 +3821,19 @@
         <v/>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.9999928021640121</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0.999193728715098</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.986781308926609</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0.9602904326005247</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0.8913572729249842</v>
       </c>
     </row>
     <row r="19">
@@ -3162,19 +3842,19 @@
         <v/>
       </c>
       <c r="B19" t="n">
-        <v>0.9331205285493457</v>
+        <v>0.999999969531709</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.9995552456134061</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.9908298128610665</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.96089706041624</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.9975252361210067</v>
       </c>
     </row>
     <row r="20">
@@ -3183,19 +3863,19 @@
         <v/>
       </c>
       <c r="B20" t="n">
-        <v>0.9999998593428373</v>
+        <v>0.8431718157647682</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991022115188396</v>
+        <v>0.9999680793055498</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8681100086305673</v>
+        <v>0.9733713212105237</v>
       </c>
       <c r="E20" t="n">
-        <v>0.930982616053715</v>
+        <v>0.9894693318823607</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8898836231989404</v>
+        <v>0.9673636978278662</v>
       </c>
     </row>
     <row r="21">
@@ -3204,19 +3884,19 @@
         <v/>
       </c>
       <c r="B21" t="n">
-        <v>0.9999199007595249</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.983714945849548</v>
+        <v>0.9999999999998511</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9252501252697529</v>
+        <v>0.999999995663279</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8287784178791822</v>
+        <v>0.9999991533157032</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8537087818262546</v>
+        <v>0.999977135500987</v>
       </c>
     </row>
     <row r="22">
@@ -3225,18 +3905,358 @@
         <v/>
       </c>
       <c r="B22" t="n">
-        <v>0.9547067751968733</v>
+        <v>0.9999957008277338</v>
       </c>
       <c r="C22" t="n">
+        <v>0.9959173004120162</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9906359872192052</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.83514723482167</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9113990180190337</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9999999999999972</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9999999997515959</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.999990174414468</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9999953729890656</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>0.9999989802318225</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9979836338569783</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9764050331481068</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9243625935980294</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9621606247389317</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n">
+        <v>0.9999999969961316</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9998394429970829</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9955445034423455</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9768312765434292</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9598784377489105</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n">
+        <v>0.9998201467613004</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.97387828965485</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9426882430463438</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9774331633765015</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9249614629817372</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9999999966701103</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9998300865695399</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9998635217239744</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.979692840175476</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n">
+        <v>0.9823259939041492</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9207188480422773</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8604981753420411</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8283912964425066</v>
+      </c>
+      <c r="F28" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="n">
+    </row>
+    <row r="29">
+      <c r="B29" t="n">
+        <v>0.9999999746444326</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9999670562557352</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.998068963262749</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9881585230491997</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9643533605237191</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9999999999975889</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9999999974056971</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9999997569042229</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="n">
+        <v>0.9999994604660681</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9983275168290143</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9789497494471806</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8816542403745291</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.928920822119522</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="n">
+        <v>0.9999999982048317</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9971492024493162</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9961516282222461</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8331907376201</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9471064626642434</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="n">
+        <v>0.9999999999354908</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9999794430621894</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9795081839519959</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9902575095630147</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9142699890203099</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="n">
+        <v>0.9517042061422496</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9974814609448449</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9742648327677772</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9430707563986331</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8785177886012985</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="n">
+        <v>0.999987003617831</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9925013620750776</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9445383446928258</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8626529880140068</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8852993798114948</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9999999992476354</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9999999510057601</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9997411969013303</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9999069292538121</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="n">
+        <v>0.993409063604779</v>
+      </c>
+      <c r="C38" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="n">
+      <c r="D38" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="n">
+        <v>0.9999990168300559</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9977421426665086</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9741176135504598</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9430208691993253</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8450239320471145</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="n">
+        <v>0.9999999997655714</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9999635885430584</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9981807108634102</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.987846433433324</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9645425789605077</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="n">
+        <v>0.9999999471236006</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9994239734494694</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9894267203106346</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9498851006123143</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8331157639599389</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Networks/Chicago-Sketch/Results/Scenarios/summary.xlsx
+++ b/data/Networks/Chicago-Sketch/Results/Scenarios/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13640" windowWidth="29000" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13640" windowWidth="29000" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="compTimes5" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,10 +16,7 @@
     <sheet name="objFun10" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="reliability10" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" name="_xlchart.v2.0">objFun5!$J$2:$N$2</definedName>
-    <definedName hidden="1" name="_xlchart.v2.1">objFun5!$J$3:$N$3</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -522,8 +519,8 @@
   </sheetPr>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -613,22 +610,22 @@
         <v/>
       </c>
       <c r="B3" t="n">
-        <v>5.5054657</v>
+        <v>5.9988026</v>
       </c>
       <c r="C3" t="n">
-        <v>4.4212646</v>
+        <v>4.7310584</v>
       </c>
       <c r="D3" t="n">
-        <v>5.226341</v>
+        <v>5.5496321</v>
       </c>
       <c r="E3" t="n">
-        <v>10.0500012</v>
+        <v>10.6352699</v>
       </c>
       <c r="F3" t="n">
-        <v>3.8239077</v>
+        <v>4.1348296</v>
       </c>
       <c r="G3" t="n">
-        <v>63.9673461</v>
+        <v>70.6850173</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>1</v>
@@ -667,22 +664,22 @@
         <v/>
       </c>
       <c r="B4" t="n">
-        <v>5.0362924</v>
+        <v>5.4837809</v>
       </c>
       <c r="C4" t="n">
-        <v>3.8458962</v>
+        <v>4.1979462</v>
       </c>
       <c r="D4" t="n">
-        <v>3.9021295</v>
+        <v>4.2392237</v>
       </c>
       <c r="E4" t="n">
-        <v>3.8300357</v>
+        <v>4.7021831</v>
       </c>
       <c r="F4" t="n">
-        <v>3.9924657</v>
+        <v>4.3246297</v>
       </c>
       <c r="G4" t="n">
-        <v>40.5718515</v>
+        <v>44.9715902</v>
       </c>
       <c r="I4">
         <f>I3+1</f>
@@ -722,22 +719,22 @@
         <v/>
       </c>
       <c r="B5" t="n">
-        <v>10.013446</v>
+        <v>11.0123716</v>
       </c>
       <c r="C5" t="n">
-        <v>10.5675035</v>
+        <v>11.4774295</v>
       </c>
       <c r="D5" t="n">
-        <v>10.8508678</v>
+        <v>11.4345689</v>
       </c>
       <c r="E5" t="n">
-        <v>10.5153893</v>
+        <v>11.1901352</v>
       </c>
       <c r="F5" t="n">
-        <v>8.979025399999999</v>
+        <v>9.9488199</v>
       </c>
       <c r="G5" t="n">
-        <v>82.13768330000001</v>
+        <v>89.9437039</v>
       </c>
       <c r="I5">
         <f>I4+1</f>
@@ -777,22 +774,22 @@
         <v/>
       </c>
       <c r="B6" t="n">
-        <v>3.9599135</v>
+        <v>4.2987522</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0482364</v>
+        <v>4.3575376</v>
       </c>
       <c r="D6" t="n">
-        <v>4.2458565</v>
+        <v>4.563353</v>
       </c>
       <c r="E6" t="n">
-        <v>4.2769376</v>
+        <v>4.6121782</v>
       </c>
       <c r="F6" t="n">
-        <v>4.1373299</v>
+        <v>4.5661285</v>
       </c>
       <c r="G6" t="n">
-        <v>30.8600411</v>
+        <v>33.9922782</v>
       </c>
       <c r="I6">
         <f>I5+1</f>
@@ -832,22 +829,22 @@
         <v/>
       </c>
       <c r="B7" t="n">
-        <v>9.1810885</v>
+        <v>9.9288129</v>
       </c>
       <c r="C7" t="n">
-        <v>9.5906264</v>
+        <v>10.2661783</v>
       </c>
       <c r="D7" t="n">
-        <v>9.837821699999999</v>
+        <v>10.7112296</v>
       </c>
       <c r="E7" t="n">
-        <v>10.3983322</v>
+        <v>11.0505939</v>
       </c>
       <c r="F7" t="n">
-        <v>19.6331683</v>
+        <v>21.173587</v>
       </c>
       <c r="G7" t="n">
-        <v>182.4142392</v>
+        <v>200.7784999</v>
       </c>
       <c r="I7">
         <f>I6+1</f>
@@ -887,22 +884,19 @@
         <v/>
       </c>
       <c r="B8" t="n">
-        <v>8.989054700000001</v>
+        <v>9.8264458</v>
       </c>
       <c r="C8" t="n">
-        <v>9.2443078</v>
+        <v>10.0471451</v>
       </c>
       <c r="D8" t="n">
-        <v>11.0458034</v>
+        <v>12.1168176</v>
       </c>
       <c r="E8" t="n">
-        <v>37.2683291</v>
+        <v>41.2122293</v>
       </c>
       <c r="F8" t="n">
-        <v>222.0427116</v>
-      </c>
-      <c r="G8" t="n">
-        <v>62.7625094</v>
+        <v>243.7282003</v>
       </c>
       <c r="I8">
         <f>I7+1</f>
@@ -942,22 +936,22 @@
         <v/>
       </c>
       <c r="B9" t="n">
-        <v>10.6633418</v>
+        <v>10.3212478</v>
       </c>
       <c r="C9" t="n">
-        <v>9.4004931</v>
+        <v>9.0474181</v>
       </c>
       <c r="D9" t="n">
-        <v>8.692122100000001</v>
+        <v>8.435494500000001</v>
       </c>
       <c r="E9" t="n">
-        <v>7.5539382</v>
+        <v>7.4570178</v>
       </c>
       <c r="F9" t="n">
-        <v>11.1160003</v>
+        <v>11.0168587</v>
       </c>
       <c r="G9" t="n">
-        <v>26.4592969</v>
+        <v>249.7696543</v>
       </c>
       <c r="I9">
         <f>I8+1</f>
@@ -997,22 +991,22 @@
         <v/>
       </c>
       <c r="B10" t="n">
-        <v>2.1357763</v>
+        <v>2.0455972</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0453324</v>
+        <v>2.0047378</v>
       </c>
       <c r="D10" t="n">
-        <v>2.0845908</v>
+        <v>1.9630462</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0856632</v>
+        <v>1.9724412</v>
       </c>
       <c r="F10" t="n">
-        <v>2.0516674</v>
+        <v>1.9165714</v>
       </c>
       <c r="G10" t="n">
-        <v>257.7528286</v>
+        <v>16.1316992</v>
       </c>
       <c r="I10">
         <f>I9+1</f>
@@ -1052,19 +1046,22 @@
         <v/>
       </c>
       <c r="B11" t="n">
-        <v>4.39007</v>
+        <v>4.274302</v>
       </c>
       <c r="C11" t="n">
-        <v>4.3412327</v>
+        <v>4.1033221</v>
       </c>
       <c r="D11" t="n">
-        <v>4.0250014</v>
+        <v>3.8242672</v>
       </c>
       <c r="E11" t="n">
-        <v>3.9692344</v>
+        <v>3.8288531</v>
       </c>
       <c r="F11" t="n">
-        <v>3.8031135</v>
+        <v>3.6934667</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40.7044093</v>
       </c>
       <c r="I11">
         <f>I10+1</f>
@@ -1104,19 +1101,19 @@
         <v/>
       </c>
       <c r="B12" t="n">
-        <v>2.7538036</v>
+        <v>2.6440257</v>
       </c>
       <c r="C12" t="n">
-        <v>3.5445937</v>
+        <v>3.5050402</v>
       </c>
       <c r="D12" t="n">
-        <v>18.8981891</v>
+        <v>18.8102794</v>
       </c>
       <c r="E12" t="n">
-        <v>7.4874065</v>
+        <v>7.4267319</v>
       </c>
       <c r="F12" t="n">
-        <v>17.9221036</v>
+        <v>17.6439342</v>
       </c>
       <c r="I12" s="30">
         <f>I11+1</f>
@@ -1156,19 +1153,22 @@
         <v/>
       </c>
       <c r="B13" t="n">
-        <v>1.6561335</v>
+        <v>1.5829203</v>
       </c>
       <c r="C13" t="n">
-        <v>0.847930301</v>
+        <v>0.7651853</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6752638010000001</v>
+        <v>0.6165149</v>
       </c>
       <c r="E13" t="n">
-        <v>0.500780301</v>
+        <v>0.4769327</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5471573</v>
+        <v>0.4785813</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.0582055</v>
       </c>
       <c r="I13" s="28" t="inlineStr">
         <is>
@@ -1206,19 +1206,22 @@
         <v/>
       </c>
       <c r="B14" t="n">
-        <v>5.0004625</v>
+        <v>4.8730166</v>
       </c>
       <c r="C14" t="n">
-        <v>3.1327084</v>
+        <v>3.0038109</v>
       </c>
       <c r="D14" t="n">
-        <v>2.4496632</v>
+        <v>2.4382544</v>
       </c>
       <c r="E14" t="n">
-        <v>2.763642501</v>
+        <v>2.6033694</v>
       </c>
       <c r="F14" t="n">
-        <v>9.048845500000001</v>
+        <v>9.1891452</v>
+      </c>
+      <c r="G14" t="n">
+        <v>78.4734406</v>
       </c>
     </row>
     <row r="15">
@@ -1227,19 +1230,22 @@
         <v/>
       </c>
       <c r="B15" t="n">
-        <v>7.943719499</v>
+        <v>7.908745</v>
       </c>
       <c r="C15" t="n">
-        <v>5.598260301</v>
+        <v>5.4587693</v>
       </c>
       <c r="D15" t="n">
-        <v>5.3628995</v>
+        <v>5.2817006</v>
       </c>
       <c r="E15" t="n">
-        <v>5.331519199</v>
+        <v>5.2287038</v>
       </c>
       <c r="F15" t="n">
-        <v>7.332353699</v>
+        <v>7.2487525</v>
+      </c>
+      <c r="G15" t="n">
+        <v>52.0848787</v>
       </c>
     </row>
     <row r="16">
@@ -1248,19 +1254,22 @@
         <v/>
       </c>
       <c r="B16" t="n">
-        <v>17.573174101</v>
+        <v>17.6706052</v>
       </c>
       <c r="C16" t="n">
-        <v>18.36229</v>
+        <v>18.3861027</v>
       </c>
       <c r="D16" t="n">
-        <v>18.380557899</v>
+        <v>18.1066619</v>
       </c>
       <c r="E16" t="n">
-        <v>16.8520238</v>
+        <v>16.9164692</v>
       </c>
       <c r="F16" t="n">
-        <v>37.336079299</v>
+        <v>37.3369791</v>
+      </c>
+      <c r="G16" t="n">
+        <v>344.5923499</v>
       </c>
     </row>
     <row r="17">
@@ -1269,19 +1278,19 @@
         <v/>
       </c>
       <c r="B17" t="n">
-        <v>8.629942201</v>
+        <v>8.1772347</v>
       </c>
       <c r="C17" t="n">
-        <v>9.086075900000001</v>
+        <v>8.7831008</v>
       </c>
       <c r="D17" t="n">
-        <v>9.4231506</v>
+        <v>8.989385800000001</v>
       </c>
       <c r="E17" t="n">
-        <v>9.375981400000001</v>
+        <v>8.6887931</v>
       </c>
       <c r="F17" t="n">
-        <v>9.100125799000001</v>
+        <v>8.8077934</v>
       </c>
     </row>
     <row r="18">
@@ -1290,19 +1299,19 @@
         <v/>
       </c>
       <c r="B18" t="n">
-        <v>20.979280301</v>
+        <v>20.166533</v>
       </c>
       <c r="C18" t="n">
-        <v>16.828738999</v>
+        <v>16.2844963</v>
       </c>
       <c r="D18" t="n">
-        <v>16.5652996</v>
+        <v>16.0193073</v>
       </c>
       <c r="E18" t="n">
-        <v>82.97283210000001</v>
+        <v>80.0073474</v>
       </c>
       <c r="F18" t="n">
-        <v>73.33400330000001</v>
+        <v>71.7625165</v>
       </c>
     </row>
     <row r="19">
@@ -1311,19 +1320,22 @@
         <v/>
       </c>
       <c r="B19" t="n">
-        <v>5.0770776</v>
+        <v>4.8432593</v>
       </c>
       <c r="C19" t="n">
-        <v>4.2356098</v>
+        <v>4.0401548</v>
       </c>
       <c r="D19" t="n">
-        <v>4.2735113</v>
+        <v>4.1239217</v>
       </c>
       <c r="E19" t="n">
-        <v>4.0476574</v>
+        <v>3.9792088</v>
       </c>
       <c r="F19" t="n">
-        <v>4.9095181</v>
+        <v>4.632044</v>
+      </c>
+      <c r="G19" t="n">
+        <v>46.7231678</v>
       </c>
     </row>
     <row r="20">
@@ -1332,19 +1344,19 @@
         <v/>
       </c>
       <c r="B20" t="n">
-        <v>11.9239932</v>
+        <v>11.6069531</v>
       </c>
       <c r="C20" t="n">
-        <v>9.5614413</v>
+        <v>9.270907899999999</v>
       </c>
       <c r="D20" t="n">
-        <v>9.0978412</v>
+        <v>8.910196900000001</v>
       </c>
       <c r="E20" t="n">
-        <v>9.7614619</v>
+        <v>9.643523699999999</v>
       </c>
       <c r="F20" t="n">
-        <v>10.4581972</v>
+        <v>10.1003175</v>
       </c>
     </row>
     <row r="21">
@@ -1353,19 +1365,22 @@
         <v/>
       </c>
       <c r="B21" t="n">
-        <v>2.71657</v>
+        <v>2.6325756</v>
       </c>
       <c r="C21" t="n">
-        <v>2.4319321</v>
+        <v>2.3338076</v>
       </c>
       <c r="D21" t="n">
-        <v>2.2843115</v>
+        <v>2.2625592</v>
       </c>
       <c r="E21" t="n">
-        <v>1.9607436</v>
+        <v>1.8593195</v>
       </c>
       <c r="F21" t="n">
-        <v>1.7145104</v>
+        <v>1.6964949</v>
+      </c>
+      <c r="G21" t="n">
+        <v>17.3058209</v>
       </c>
     </row>
     <row r="22">
@@ -1374,359 +1389,410 @@
         <v/>
       </c>
       <c r="B22" t="n">
-        <v>6.3968404</v>
+        <v>6.3155191</v>
       </c>
       <c r="C22" t="n">
-        <v>5.5244832</v>
+        <v>5.3295015</v>
       </c>
       <c r="D22" t="n">
-        <v>6.8309641</v>
+        <v>6.5895061</v>
       </c>
       <c r="E22" t="n">
-        <v>5.2128854</v>
+        <v>5.1021138</v>
       </c>
       <c r="F22" t="n">
-        <v>3.0817845</v>
+        <v>3.0185578</v>
+      </c>
+      <c r="G22" t="n">
+        <v>144.6215308</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="n">
-        <v>9.1704115</v>
+        <v>9.2156577</v>
       </c>
       <c r="C23" t="n">
-        <v>8.114029199999999</v>
+        <v>8.0831211</v>
       </c>
       <c r="D23" t="n">
-        <v>7.3672528</v>
+        <v>7.1168255</v>
       </c>
       <c r="E23" t="n">
-        <v>7.312448</v>
+        <v>7.0652958</v>
       </c>
       <c r="F23" t="n">
-        <v>7.2917701</v>
+        <v>7.0684835</v>
+      </c>
+      <c r="G23" t="n">
+        <v>74.88613359999999</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="n">
-        <v>13.0612317</v>
+        <v>12.7994076</v>
       </c>
       <c r="C24" t="n">
-        <v>13.5308941</v>
+        <v>13.3477461</v>
       </c>
       <c r="D24" t="n">
-        <v>13.3146183</v>
+        <v>12.9889875</v>
       </c>
       <c r="E24" t="n">
-        <v>40.1756158</v>
+        <v>38.987172</v>
       </c>
       <c r="F24" t="n">
-        <v>20.5629612</v>
+        <v>20.1953944</v>
+      </c>
+      <c r="G24" t="n">
+        <v>215.1445866</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="n">
-        <v>24.1331386</v>
+        <v>23.9534336</v>
       </c>
       <c r="C25" t="n">
-        <v>18.7993861</v>
+        <v>18.2159953</v>
       </c>
       <c r="D25" t="n">
-        <v>20.1940429</v>
+        <v>19.6512989</v>
       </c>
       <c r="E25" t="n">
-        <v>18.598739</v>
+        <v>18.0971142</v>
       </c>
       <c r="F25" t="n">
-        <v>24.1505129</v>
+        <v>23.5337053</v>
+      </c>
+      <c r="G25" t="n">
+        <v>180.1684736</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="n">
-        <v>8.7995307</v>
+        <v>8.698912099999999</v>
       </c>
       <c r="C26" t="n">
-        <v>9.8122252</v>
+        <v>9.392553299999999</v>
       </c>
       <c r="D26" t="n">
-        <v>11.4460822</v>
+        <v>11.212624</v>
       </c>
       <c r="E26" t="n">
-        <v>10.2615426</v>
+        <v>10.1748204</v>
       </c>
       <c r="F26" t="n">
-        <v>12.699892</v>
+        <v>12.3244108</v>
+      </c>
+      <c r="G26" t="n">
+        <v>74.84674029999999</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="n">
-        <v>7.4809107</v>
+        <v>7.0784027</v>
       </c>
       <c r="C27" t="n">
-        <v>5.9919477</v>
+        <v>5.8041123</v>
       </c>
       <c r="D27" t="n">
-        <v>6.0388104</v>
+        <v>5.6650796</v>
       </c>
       <c r="E27" t="n">
-        <v>6.0176792</v>
+        <v>5.7854806</v>
       </c>
       <c r="F27" t="n">
-        <v>5.9158246</v>
+        <v>5.7930551</v>
+      </c>
+      <c r="G27" t="n">
+        <v>60.5416973</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="n">
-        <v>46.8161989</v>
+        <v>45.6733838</v>
       </c>
       <c r="C28" t="n">
-        <v>66.91429340000001</v>
+        <v>64.34827780000001</v>
       </c>
       <c r="D28" t="n">
-        <v>72.6672726</v>
+        <v>70.5524437</v>
       </c>
       <c r="E28" t="n">
-        <v>73.2044566</v>
+        <v>69.7761016</v>
       </c>
       <c r="F28" t="n">
-        <v>73.8084659</v>
+        <v>70.57798819999999</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="n">
-        <v>24.5332089</v>
+        <v>24.1645128</v>
       </c>
       <c r="C29" t="n">
-        <v>22.6900748</v>
+        <v>22.4316661</v>
       </c>
       <c r="D29" t="n">
-        <v>21.1472159</v>
+        <v>20.3446857</v>
       </c>
       <c r="E29" t="n">
-        <v>20.1257142</v>
+        <v>19.4481423</v>
       </c>
       <c r="F29" t="n">
-        <v>21.0121982</v>
+        <v>20.550749</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="n">
-        <v>3.8926996</v>
+        <v>3.7686192</v>
       </c>
       <c r="C30" t="n">
-        <v>3.1686216</v>
+        <v>3.0840277</v>
       </c>
       <c r="D30" t="n">
-        <v>3.2924696</v>
+        <v>3.2468106</v>
       </c>
       <c r="E30" t="n">
-        <v>3.2658242</v>
+        <v>3.2175221</v>
       </c>
       <c r="F30" t="n">
-        <v>3.3116976</v>
+        <v>3.1860879</v>
+      </c>
+      <c r="G30" t="n">
+        <v>32.3385388</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="n">
-        <v>5.5310505</v>
+        <v>5.4018104</v>
       </c>
       <c r="C31" t="n">
-        <v>5.6616322</v>
+        <v>5.6080701</v>
       </c>
       <c r="D31" t="n">
-        <v>5.8425539</v>
+        <v>5.7253224</v>
       </c>
       <c r="E31" t="n">
-        <v>6.838556</v>
+        <v>6.5325231</v>
       </c>
       <c r="F31" t="n">
-        <v>5.8066638</v>
+        <v>5.7984933</v>
+      </c>
+      <c r="G31" t="n">
+        <v>43.5601663</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="n">
-        <v>15.888751</v>
+        <v>15.4487463</v>
       </c>
       <c r="C32" t="n">
-        <v>13.0763763</v>
+        <v>12.7640634</v>
       </c>
       <c r="D32" t="n">
-        <v>10.7302568</v>
+        <v>10.7116485</v>
       </c>
       <c r="E32" t="n">
-        <v>10.1996245</v>
+        <v>9.987459400000001</v>
       </c>
       <c r="F32" t="n">
-        <v>9.532495600000001</v>
+        <v>9.236715200000001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>79.69137379999999</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="n">
-        <v>6.3542466</v>
+        <v>6.139645</v>
       </c>
       <c r="C33" t="n">
-        <v>6.7101524</v>
+        <v>6.5714387</v>
       </c>
       <c r="D33" t="n">
-        <v>6.7450324</v>
+        <v>6.5267601</v>
       </c>
       <c r="E33" t="n">
-        <v>6.6075956</v>
+        <v>6.3929012</v>
       </c>
       <c r="F33" t="n">
-        <v>10.6504148</v>
+        <v>10.3206428</v>
+      </c>
+      <c r="G33" t="n">
+        <v>48.5520273</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="n">
-        <v>7.2076032</v>
+        <v>6.9601661</v>
       </c>
       <c r="C34" t="n">
-        <v>6.9097848</v>
+        <v>6.7897476</v>
       </c>
       <c r="D34" t="n">
-        <v>6.8430241</v>
+        <v>6.6092197</v>
       </c>
       <c r="E34" t="n">
-        <v>6.3886835</v>
+        <v>6.2554233</v>
       </c>
       <c r="F34" t="n">
-        <v>5.6979023</v>
+        <v>5.5132291</v>
+      </c>
+      <c r="G34" t="n">
+        <v>56.7973332</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="n">
-        <v>8.417677899999999</v>
+        <v>8.1747955</v>
       </c>
       <c r="C35" t="n">
-        <v>9.1243768</v>
+        <v>8.9489719</v>
       </c>
       <c r="D35" t="n">
-        <v>8.5944106</v>
+        <v>8.40333</v>
       </c>
       <c r="E35" t="n">
-        <v>9.3089795</v>
+        <v>9.1644235</v>
       </c>
       <c r="F35" t="n">
-        <v>6.015138</v>
+        <v>5.8630345</v>
+      </c>
+      <c r="G35" t="n">
+        <v>84.4776687</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="n">
-        <v>13.8370035</v>
+        <v>13.374718</v>
       </c>
       <c r="C36" t="n">
-        <v>15.6207845</v>
+        <v>14.0986762</v>
       </c>
       <c r="D36" t="n">
-        <v>15.2440906</v>
+        <v>14.5257413</v>
       </c>
       <c r="E36" t="n">
-        <v>18.8362134</v>
+        <v>18.3012077</v>
       </c>
       <c r="F36" t="n">
-        <v>18.3618911</v>
+        <v>17.8896805</v>
+      </c>
+      <c r="G36" t="n">
+        <v>281.8270425</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="n">
-        <v>11.45255</v>
+        <v>11.0980347</v>
       </c>
       <c r="C37" t="n">
-        <v>8.8912379</v>
+        <v>8.5954487</v>
       </c>
       <c r="D37" t="n">
-        <v>9.0060042</v>
+        <v>8.651508400000001</v>
       </c>
       <c r="E37" t="n">
-        <v>8.705800999999999</v>
+        <v>8.351297600000001</v>
       </c>
       <c r="F37" t="n">
-        <v>9.313878000000001</v>
+        <v>8.895016200000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>83.7244496</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="n">
-        <v>29.4944046</v>
+        <v>28.5375139</v>
       </c>
       <c r="C38" t="n">
-        <v>19.3994949</v>
+        <v>18.8300518</v>
       </c>
       <c r="D38" t="n">
-        <v>12.4526026</v>
+        <v>12.153042</v>
       </c>
       <c r="E38" t="n">
-        <v>7.8522884</v>
+        <v>7.7955138</v>
       </c>
       <c r="F38" t="n">
-        <v>7.101953</v>
+        <v>6.972086</v>
+      </c>
+      <c r="G38" t="n">
+        <v>59.7364924</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="n">
-        <v>18.4816672</v>
+        <v>17.6858266</v>
       </c>
       <c r="C39" t="n">
-        <v>20.73486</v>
+        <v>19.9665289</v>
       </c>
       <c r="D39" t="n">
-        <v>33.5281986</v>
+        <v>32.7787989</v>
       </c>
       <c r="E39" t="n">
-        <v>55.6186508</v>
+        <v>54.1353206</v>
       </c>
       <c r="F39" t="n">
-        <v>141.7808436</v>
+        <v>136.2802952</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="n">
-        <v>13.6627737</v>
+        <v>13.916195</v>
       </c>
       <c r="C40" t="n">
-        <v>14.1250346</v>
+        <v>13.8390134</v>
       </c>
       <c r="D40" t="n">
-        <v>14.452664</v>
+        <v>14.2733485</v>
       </c>
       <c r="E40" t="n">
-        <v>14.5158513</v>
+        <v>13.9022406</v>
       </c>
       <c r="F40" t="n">
-        <v>14.5277657</v>
+        <v>14.1938474</v>
+      </c>
+      <c r="G40" t="n">
+        <v>106.0444834</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="n">
-        <v>13.8200316</v>
+        <v>13.2461629</v>
       </c>
       <c r="C41" t="n">
-        <v>13.8407335</v>
+        <v>13.4247435</v>
       </c>
       <c r="D41" t="n">
-        <v>32.1988951</v>
+        <v>31.2896126</v>
       </c>
       <c r="E41" t="n">
-        <v>28.3416492</v>
+        <v>27.6234848</v>
       </c>
       <c r="F41" t="n">
-        <v>38.2391602</v>
+        <v>37.2166386</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="n">
-        <v>0.0637069</v>
+        <v>0.0587294</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0647891</v>
+        <v>0.0637997</v>
       </c>
       <c r="D42" t="n">
-        <v>0.063887</v>
+        <v>0.0586328</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0603231</v>
+        <v>0.0603861</v>
       </c>
       <c r="F42" t="n">
-        <v>0.061676</v>
+        <v>0.0629817</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.3502624</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +1813,7 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2241,7 +2307,7 @@
         <v>16443</v>
       </c>
       <c r="G9" t="n">
-        <v>13457</v>
+        <v>16443</v>
       </c>
       <c r="I9" s="16">
         <f>I8+1</f>
@@ -2304,7 +2370,7 @@
         <v>6979</v>
       </c>
       <c r="G10" t="n">
-        <v>15622</v>
+        <v>6979</v>
       </c>
       <c r="I10" s="16">
         <f>I9+1</f>
@@ -2366,6 +2432,9 @@
       <c r="F11" t="n">
         <v>9585</v>
       </c>
+      <c r="G11" t="n">
+        <v>9585</v>
+      </c>
       <c r="I11" s="16">
         <f>I10+1</f>
         <v/>
@@ -2486,6 +2555,9 @@
       <c r="F13" t="n">
         <v>9999999</v>
       </c>
+      <c r="G13" t="n">
+        <v>9999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -2507,6 +2579,9 @@
       <c r="F14" t="n">
         <v>11464</v>
       </c>
+      <c r="G14" t="n">
+        <v>11464</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -2528,6 +2603,9 @@
       <c r="F15" t="n">
         <v>13232</v>
       </c>
+      <c r="G15" t="n">
+        <v>13232</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -2549,6 +2627,9 @@
       <c r="F16" t="n">
         <v>20444</v>
       </c>
+      <c r="G16" t="n">
+        <v>20444</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -2612,6 +2693,9 @@
       <c r="F19" t="n">
         <v>14958</v>
       </c>
+      <c r="G19" t="n">
+        <v>14958</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -2654,6 +2738,9 @@
       <c r="F21" t="n">
         <v>10653</v>
       </c>
+      <c r="G21" t="n">
+        <v>10653</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -2675,6 +2762,9 @@
       <c r="F22" t="n">
         <v>13124</v>
       </c>
+      <c r="G22" t="n">
+        <v>9999999</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" t="n">
@@ -2692,6 +2782,9 @@
       <c r="F23" t="n">
         <v>18770</v>
       </c>
+      <c r="G23" t="n">
+        <v>18770</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="n">
@@ -2709,6 +2802,9 @@
       <c r="F24" t="n">
         <v>13974</v>
       </c>
+      <c r="G24" t="n">
+        <v>13974</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="n">
@@ -2726,6 +2822,9 @@
       <c r="F25" t="n">
         <v>11128</v>
       </c>
+      <c r="G25" t="n">
+        <v>11087</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" t="n">
@@ -2743,6 +2842,9 @@
       <c r="F26" t="n">
         <v>12633</v>
       </c>
+      <c r="G26" t="n">
+        <v>12633</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" t="n">
@@ -2760,6 +2862,9 @@
       <c r="F27" t="n">
         <v>13779</v>
       </c>
+      <c r="G27" t="n">
+        <v>13779</v>
+      </c>
     </row>
     <row r="28">
       <c r="B28" t="n">
@@ -2811,6 +2916,9 @@
       <c r="F30" t="n">
         <v>16103</v>
       </c>
+      <c r="G30" t="n">
+        <v>16103</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" t="n">
@@ -2828,6 +2936,9 @@
       <c r="F31" t="n">
         <v>13806</v>
       </c>
+      <c r="G31" t="n">
+        <v>13746</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" t="n">
@@ -2845,6 +2956,9 @@
       <c r="F32" t="n">
         <v>14011</v>
       </c>
+      <c r="G32" t="n">
+        <v>14011</v>
+      </c>
     </row>
     <row r="33">
       <c r="B33" t="n">
@@ -2862,6 +2976,9 @@
       <c r="F33" t="n">
         <v>13977</v>
       </c>
+      <c r="G33" t="n">
+        <v>13947</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="n">
@@ -2879,6 +2996,9 @@
       <c r="F34" t="n">
         <v>14139</v>
       </c>
+      <c r="G34" t="n">
+        <v>14139</v>
+      </c>
     </row>
     <row r="35">
       <c r="B35" t="n">
@@ -2896,6 +3016,9 @@
       <c r="F35" t="n">
         <v>10960</v>
       </c>
+      <c r="G35" t="n">
+        <v>10997</v>
+      </c>
     </row>
     <row r="36">
       <c r="B36" t="n">
@@ -2913,6 +3036,9 @@
       <c r="F36" t="n">
         <v>19209</v>
       </c>
+      <c r="G36" t="n">
+        <v>19215</v>
+      </c>
     </row>
     <row r="37">
       <c r="B37" t="n">
@@ -2930,6 +3056,9 @@
       <c r="F37" t="n">
         <v>12208</v>
       </c>
+      <c r="G37" t="n">
+        <v>12208</v>
+      </c>
     </row>
     <row r="38">
       <c r="B38" t="n">
@@ -2947,6 +3076,9 @@
       <c r="F38" t="n">
         <v>9999999</v>
       </c>
+      <c r="G38" t="n">
+        <v>9999999</v>
+      </c>
     </row>
     <row r="39">
       <c r="B39" t="n">
@@ -2981,6 +3113,9 @@
       <c r="F40" t="n">
         <v>13738</v>
       </c>
+      <c r="G40" t="n">
+        <v>13738</v>
+      </c>
     </row>
     <row r="41">
       <c r="B41" t="n">
@@ -3013,6 +3148,9 @@
         <v>9999999</v>
       </c>
       <c r="F42" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="G42" t="n">
         <v>9999999</v>
       </c>
     </row>
@@ -3501,7 +3639,7 @@
         <v>0.9991903076869112</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9999958661498454</v>
+        <v>0.9999797337279515</v>
       </c>
       <c r="I9">
         <f>I8+1</f>
@@ -3560,7 +3698,7 @@
         <v>0.9999948129926295</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8171926910731044</v>
+        <v>0.9999963669102011</v>
       </c>
       <c r="I10">
         <f>I9+1</f>
@@ -3618,6 +3756,9 @@
       <c r="F11" t="n">
         <v>0.9998426140500485</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.9999720110491158</v>
+      </c>
       <c r="I11">
         <f>I10+1</f>
         <v/>
@@ -3730,6 +3871,9 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -3751,6 +3895,9 @@
       <c r="F14" t="n">
         <v>0.9953268412275942</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.989638453033201</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -3772,6 +3919,9 @@
       <c r="F15" t="n">
         <v>0.9927971749804483</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.9836628720076035</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -3793,6 +3943,9 @@
       <c r="F16" t="n">
         <v>0.9287670587663444</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.8284143658285087</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -3856,6 +4009,9 @@
       <c r="F19" t="n">
         <v>0.9975252361210067</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.9951611658975326</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -3898,6 +4054,9 @@
       <c r="F21" t="n">
         <v>0.999977135500987</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.9999803938479831</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -3919,6 +4078,9 @@
       <c r="F22" t="n">
         <v>0.9113990180190337</v>
       </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" t="n">
@@ -3936,6 +4098,9 @@
       <c r="F23" t="n">
         <v>0.9999953729890656</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.999996936110007</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="n">
@@ -3953,6 +4118,9 @@
       <c r="F24" t="n">
         <v>0.9621606247389317</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.9138632995850166</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" t="n">
@@ -3970,6 +4138,9 @@
       <c r="F25" t="n">
         <v>0.9598784377489105</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.8513231801999938</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" t="n">
@@ -3987,6 +4158,9 @@
       <c r="F26" t="n">
         <v>0.9249614629817372</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.8144762629098701</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" t="n">
@@ -4004,6 +4178,9 @@
       <c r="F27" t="n">
         <v>0.979692840175476</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.9979535956287267</v>
+      </c>
     </row>
     <row r="28">
       <c r="B28" t="n">
@@ -4055,6 +4232,9 @@
       <c r="F30" t="n">
         <v>0.9999997569042229</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.9999977328602467</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" t="n">
@@ -4072,6 +4252,9 @@
       <c r="F31" t="n">
         <v>0.928920822119522</v>
       </c>
+      <c r="G31" t="n">
+        <v>0.8735955057053011</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" t="n">
@@ -4089,6 +4272,9 @@
       <c r="F32" t="n">
         <v>0.9471064626642434</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.8678267928616354</v>
+      </c>
     </row>
     <row r="33">
       <c r="B33" t="n">
@@ -4106,6 +4292,9 @@
       <c r="F33" t="n">
         <v>0.9142699890203099</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.9262854239049072</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="n">
@@ -4123,6 +4312,9 @@
       <c r="F34" t="n">
         <v>0.9999999999999996</v>
       </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="B35" t="n">
@@ -4140,6 +4332,9 @@
       <c r="F35" t="n">
         <v>0.8785177886012985</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.9221847433953506</v>
+      </c>
     </row>
     <row r="36">
       <c r="B36" t="n">
@@ -4157,6 +4352,9 @@
       <c r="F36" t="n">
         <v>0.8852993798114948</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.8784247035401314</v>
+      </c>
     </row>
     <row r="37">
       <c r="B37" t="n">
@@ -4174,6 +4372,9 @@
       <c r="F37" t="n">
         <v>0.9999069292538121</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.9998906333364941</v>
+      </c>
     </row>
     <row r="38">
       <c r="B38" t="n">
@@ -4191,6 +4392,9 @@
       <c r="F38" t="n">
         <v>0</v>
       </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="B39" t="n">
@@ -4225,6 +4429,9 @@
       <c r="F40" t="n">
         <v>0.9645425789605077</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.9105492986104212</v>
+      </c>
     </row>
     <row r="41">
       <c r="B41" t="n">
@@ -4257,6 +4464,9 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6991,7 +7201,7 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -8410,10 +8620,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="26" width="8.83203125"/>
-    <col customWidth="1" max="14" min="3" style="26" width="8.83203125"/>
+    <col customWidth="1" max="14" min="1" style="26" width="8.83203125"/>
     <col bestFit="1" customWidth="1" max="15" min="15" style="26" width="9.6640625"/>
-    <col customWidth="1" max="16384" min="16" style="26" width="8.83203125"/>
+    <col customWidth="1" max="16" min="16" style="26" width="8.83203125"/>
+    <col customWidth="1" max="16384" min="17" style="26" width="8.83203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9174,8 +9384,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="26" width="8.83203125"/>
-    <col customWidth="1" max="16384" min="3" style="26" width="8.83203125"/>
+    <col customWidth="1" max="3" min="1" style="26" width="8.83203125"/>
+    <col customWidth="1" max="16384" min="4" style="26" width="8.83203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10005,8 +10215,8 @@
     <col customWidth="1" max="9" min="1" style="26" width="8.83203125"/>
     <col bestFit="1" customWidth="1" max="15" min="10" style="26" width="9.6640625"/>
     <col customWidth="1" max="16" min="16" style="26" width="10.33203125"/>
-    <col customWidth="1" max="18" min="17" style="26" width="8.83203125"/>
-    <col customWidth="1" max="16384" min="19" style="26" width="8.83203125"/>
+    <col customWidth="1" max="19" min="17" style="26" width="8.83203125"/>
+    <col customWidth="1" max="16384" min="20" style="26" width="8.83203125"/>
   </cols>
   <sheetData>
     <row r="1">
